--- a/offer list format.xlsx
+++ b/offer list format.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyas\Desktop\mobility\Offer-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
   <si>
     <t>price</t>
   </si>
@@ -85,12 +85,99 @@
   </si>
   <si>
     <t>0.128</t>
+  </si>
+  <si>
+    <t>proje100</t>
+  </si>
+  <si>
+    <t>supplier100</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>product100</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>supplier101</t>
+  </si>
+  <si>
+    <t>product101</t>
+  </si>
+  <si>
+    <t>category101</t>
+  </si>
+  <si>
+    <t>proje102</t>
+  </si>
+  <si>
+    <t>product102</t>
+  </si>
+  <si>
+    <t>category102</t>
+  </si>
+  <si>
+    <t>proje103</t>
+  </si>
+  <si>
+    <t>supplier103</t>
+  </si>
+  <si>
+    <t>category103</t>
+  </si>
+  <si>
+    <t>proje104</t>
+  </si>
+  <si>
+    <t>supplier104</t>
+  </si>
+  <si>
+    <t>product104</t>
+  </si>
+  <si>
+    <t>category104</t>
+  </si>
+  <si>
+    <t>proje105</t>
+  </si>
+  <si>
+    <t>supplier105</t>
+  </si>
+  <si>
+    <t>category105</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>proje106</t>
+  </si>
+  <si>
+    <t>supplier106</t>
+  </si>
+  <si>
+    <t>category106</t>
+  </si>
+  <si>
+    <t>product106</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -117,13 +204,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,261 +600,383 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" customWidth="1"/>
     <col min="9" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="14" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4">
         <v>123456</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3"/>
-      <c r="D3"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5">
+        <v>500</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42526</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4"/>
-      <c r="D4"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5">
+        <v>501</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42527</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5"/>
-      <c r="D5"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5">
+        <v>502</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="7">
+        <v>42528</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6"/>
-      <c r="D6"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5">
+        <v>503</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="7">
+        <v>42529</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7"/>
-      <c r="D7"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5">
+        <v>504</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="7">
+        <v>42530</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8"/>
-      <c r="D8"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5">
+        <v>505</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7">
+        <v>42531</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9"/>
-      <c r="D9"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="5">
+        <v>506</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7">
+        <v>42532</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10"/>
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11"/>
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12"/>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13"/>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14"/>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15"/>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19"/>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20"/>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21"/>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22"/>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23"/>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25"/>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27"/>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28"/>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29"/>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30"/>
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31"/>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32"/>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33"/>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34"/>
-      <c r="D34"/>
-    </row>
-    <row r="35" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35"/>
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36"/>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37"/>
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38"/>
-      <c r="D38"/>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C39"/>
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C40"/>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C41"/>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C42"/>
-      <c r="D42"/>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C43"/>
-      <c r="D43"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/offer list format.xlsx
+++ b/offer list format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
   <si>
     <t>price</t>
   </si>
@@ -169,6 +169,48 @@
   </si>
   <si>
     <t>product106</t>
+  </si>
+  <si>
+    <t>proje107</t>
+  </si>
+  <si>
+    <t>supplier107</t>
+  </si>
+  <si>
+    <t>product107</t>
+  </si>
+  <si>
+    <t>category107</t>
+  </si>
+  <si>
+    <t>proje108</t>
+  </si>
+  <si>
+    <t>supplier108</t>
+  </si>
+  <si>
+    <t>product108</t>
+  </si>
+  <si>
+    <t>category108</t>
+  </si>
+  <si>
+    <t>proje109</t>
+  </si>
+  <si>
+    <t>supplier109</t>
+  </si>
+  <si>
+    <t>product109</t>
+  </si>
+  <si>
+    <t>category109</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.12</t>
   </si>
 </sst>
 </file>
@@ -600,11 +642,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -976,7 +1018,127 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E10" s="7"/>
+      <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5">
+        <v>507</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="7">
+        <v>41437</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="5">
+        <v>508</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="7">
+        <v>41438</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="5">
+        <v>509</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="7">
+        <v>42535</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
